--- a/templates/Final/Confidence_Config_Template_Annotated_Final.xlsx
+++ b/templates/Final/Confidence_Config_Template_Annotated_Final.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3ECFA3-5437-9B41-B2D4-29BF5392811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EF71BA-EBA4-4D43-AA6E-0EFC4615000F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="1680" windowWidth="27620" windowHeight="15080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17220" yWindow="1680" windowWidth="27620" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
     <sheet name="File_Paths" sheetId="1" r:id="rId2"/>
     <sheet name="Study_Settings" sheetId="2" r:id="rId3"/>
     <sheet name="Question_Analysis" sheetId="3" r:id="rId4"/>
+    <sheet name="Population_Margins" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="213">
   <si>
     <t>Parameter</t>
   </si>
@@ -158,9 +159,6 @@
   </si>
   <si>
     <t>The location of the data file including the path e.g 03_Data/project_Data.xlsx. Use the same data file as used in tabs</t>
-  </si>
-  <si>
-    <t>the name of the weight field</t>
   </si>
   <si>
     <t>Your file_paths sheet must consist of the white area only</t>
@@ -856,13 +854,374 @@
       </rPr>
       <t xml:space="preserve"> (this is actually 45% aware or yes or whatever proportion you are tracking)</t>
     </r>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Options/Valid Values</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Variable name as it appears in your dataset. For nested quotas, use comma-separated names (e.g., "Gender,Age_Group")</t>
+  </si>
+  <si>
+    <t>Any valid column name from your data file</t>
+  </si>
+  <si>
+    <t>(none)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Category_Label</t>
+  </si>
+  <si>
+    <t>Human-readable label for the category. Used in output reports.</t>
+  </si>
+  <si>
+    <t>Any descriptive text (e.g., "Male", "Female", "18-34", "35-54")</t>
+  </si>
+  <si>
+    <t>Category_Code</t>
+  </si>
+  <si>
+    <t>The actual code/value as it appears in your data. Can be numeric or text.</t>
+  </si>
+  <si>
+    <t>Must match exactly how category appears in data (e.g., "1", "M", "Male")</t>
+  </si>
+  <si>
+    <t>Uses Category_Label if not specified</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Target_Prop</t>
+  </si>
+  <si>
+    <t>Target proportion for this category in the population. Must be decimal (0-1), NOT percentage.</t>
+  </si>
+  <si>
+    <t>Numeric value between 0 and 1 (e.g., 0.48 for 48%, 0.52 for 52%)</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Whether to include this margin in the comparison</t>
+  </si>
+  <si>
+    <t>"Y" = include, "N" = exclude (case insensitive)</t>
+  </si>
+  <si>
+    <t>"Y"</t>
+  </si>
+  <si>
+    <t>Validation Rules:</t>
+  </si>
+  <si>
+    <t>Target_Prop values:</t>
+  </si>
+  <si>
+    <t>Must be numeric</t>
+  </si>
+  <si>
+    <t>Must be between 0 and 1</t>
+  </si>
+  <si>
+    <t>Should sum to ~1.0 for each Variable (warning if sum ≠ 1.0 ± 0.01)</t>
+  </si>
+  <si>
+    <t>Variable names:</t>
+  </si>
+  <si>
+    <t>Must match column names in your data file exactly (case sensitive)</t>
+  </si>
+  <si>
+    <t>For nested quotas: separate with commas (e.g., "Gender,Age_Group")</t>
+  </si>
+  <si>
+    <t>Category_Code matching:</t>
+  </si>
+  <si>
+    <t>Must match how categories appear in your data</t>
+  </si>
+  <si>
+    <t>Code handles both numeric (1, 2, 3) and text ("M", "F") values</t>
+  </si>
+  <si>
+    <t>Matching is done as character strings (numeric codes are converted to text)</t>
+  </si>
+  <si>
+    <t>Example Sheet Layout:</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>Age_Group</t>
+  </si>
+  <si>
+    <t>18-34</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>35-54</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>55+</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>Postgrad</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Output Flags:</t>
+  </si>
+  <si>
+    <t>When the analysis runs, it compares actual weighted sample proportions to targets and generates flags:</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>Good match</t>
+  </si>
+  <si>
+    <t>Difference &lt; 2 percentage points</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>Moderate deviation</t>
+  </si>
+  <si>
+    <t>Difference 2-5 percentage points</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>Large deviation</t>
+  </si>
+  <si>
+    <t>Difference &gt; 5 percentage points</t>
+  </si>
+  <si>
+    <t>MISSING_VAR</t>
+  </si>
+  <si>
+    <t>Variable not found in data</t>
+  </si>
+  <si>
+    <t>Variable doesn't exist in dataset</t>
+  </si>
+  <si>
+    <t>Important Notes:</t>
+  </si>
+  <si>
+    <r>
+      <t>The entire sheet is OPTIONAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> - if not present, analysis runs without margin comparison</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Proportions vs Percentages:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Use 0.48 (not 48) for 48%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Empty sheet behavior:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> If sheet exists but is empty, analysis runs normally without margin comparison</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Missing variables:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> If Variable in sheet doesn't exist in data, row is flagged as "MISSING_VAR" but analysis continues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Include="N" rows:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Excluded from comparison but kept in sheet for documentation</t>
+    </r>
+  </si>
+  <si>
+    <t>Common Use Cases:</t>
+  </si>
+  <si>
+    <t>Use Case 1: Simple demographic quotas</t>
+  </si>
+  <si>
+    <t>Variable    | Category_Label | Category_Code | Target_Prop | Include</t>
+  </si>
+  <si>
+    <t>Gender      | Male           | M             | 0.49        | Y</t>
+  </si>
+  <si>
+    <t>Gender      | Female         | F             | 0.51        | Y</t>
+  </si>
+  <si>
+    <t>Use Case 2: Numeric codes from survey platform</t>
+  </si>
+  <si>
+    <t>Q1_Age      | 18-34          | 1             | 0.30        | Y</t>
+  </si>
+  <si>
+    <t>Q1_Age      | 35-54          | 2             | 0.40        | Y</t>
+  </si>
+  <si>
+    <t>Q1_Age      | 55+            | 3             | 0.30        | Y</t>
+  </si>
+  <si>
+    <t>Use Case 3: Nested quotas (interlocked quotas)</t>
+  </si>
+  <si>
+    <t>Variable          | Category_Label  | Category_Code | Target_Prop | Include</t>
+  </si>
+  <si>
+    <t>Gender,Age_Group  | Male 18-34      | M,18-34       | 0.15        | Y</t>
+  </si>
+  <si>
+    <t>Gender,Age_Group  | Male 35-54      | M,35-54       | 0.20        | Y</t>
+  </si>
+  <si>
+    <t>Gender,Age_Group  | Female 18-34    | F,18-34       | 0.15        | Y</t>
+  </si>
+  <si>
+    <t>Gender,Age_Group  | Female 35-54    | F,35-54       | 0.20        | Y</t>
+  </si>
+  <si>
+    <t>the name of the weight field (if there is one) - If blank/empty, analysis runs unweighted, must be a numeric comlumn and can only handle positive weights</t>
+  </si>
+  <si>
+    <t>Version 10.0 Last updated 4 December 2025</t>
+  </si>
+  <si>
+    <t>Confidence Config Template - Instructions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -959,6 +1318,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF141413"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF141413"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF366092"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1020,21 +1410,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1048,6 +1438,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,25 +1741,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106DE503-03F6-144C-A03B-AD8CF7C10DC8}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1371,7 +1792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1382,7 +1805,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1422,7 +1845,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +1868,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -1524,7 +1947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
@@ -1546,7 +1969,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1582,10 +2005,10 @@
         <v>26</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>27</v>
@@ -1625,7 +2048,7 @@
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
@@ -1663,43 +2086,43 @@
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="F6" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1935,7 +2358,7 @@
     </row>
     <row r="20" spans="2:14" ht="23" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1967,7 +2390,7 @@
     </row>
     <row r="22" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1999,7 +2422,7 @@
     </row>
     <row r="24" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -2016,7 +2439,7 @@
     </row>
     <row r="25" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -2033,7 +2456,7 @@
     </row>
     <row r="26" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -2095,7 +2518,7 @@
     </row>
     <row r="30" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -2127,7 +2550,7 @@
     </row>
     <row r="32" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -2144,7 +2567,7 @@
     </row>
     <row r="33" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -2161,7 +2584,7 @@
     </row>
     <row r="34" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -2223,7 +2646,7 @@
     </row>
     <row r="38" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2255,7 +2678,7 @@
     </row>
     <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -2272,7 +2695,7 @@
     </row>
     <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -2289,7 +2712,7 @@
     </row>
     <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -2351,7 +2774,7 @@
     </row>
     <row r="46" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -2383,7 +2806,7 @@
     </row>
     <row r="48" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -2400,7 +2823,7 @@
     </row>
     <row r="49" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -2417,7 +2840,7 @@
     </row>
     <row r="50" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B50" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -2479,7 +2902,7 @@
     </row>
     <row r="54" spans="2:14" ht="23" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -2511,16 +2934,16 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="D56" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="E56" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -2537,13 +2960,13 @@
         <v>28</v>
       </c>
       <c r="C57" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="E57" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>70</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -2560,13 +2983,13 @@
         <v>29</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="E58" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -2583,13 +3006,13 @@
         <v>42</v>
       </c>
       <c r="C59" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -2618,7 +3041,7 @@
     </row>
     <row r="61" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B61" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -2650,7 +3073,7 @@
     </row>
     <row r="66" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B66" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -2682,7 +3105,7 @@
     </row>
     <row r="68" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B68" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -2699,7 +3122,7 @@
     </row>
     <row r="69" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B69" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -2716,7 +3139,7 @@
     </row>
     <row r="70" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B70" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -2778,7 +3201,7 @@
     </row>
     <row r="74" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B74" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -2810,7 +3233,7 @@
     </row>
     <row r="76" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B76" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -2827,7 +3250,7 @@
     </row>
     <row r="77" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B77" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -2844,7 +3267,7 @@
     </row>
     <row r="78" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B78" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -2906,7 +3329,7 @@
     </row>
     <row r="82" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B82" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -2938,7 +3361,7 @@
     </row>
     <row r="84" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B84" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -2955,7 +3378,7 @@
     </row>
     <row r="85" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B85" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -2972,7 +3395,7 @@
     </row>
     <row r="86" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B86" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -3034,7 +3457,7 @@
     </row>
     <row r="90" spans="2:14" ht="23" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -3066,7 +3489,7 @@
     </row>
     <row r="92" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B92" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
@@ -3098,7 +3521,7 @@
     </row>
     <row r="94" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B94" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -3115,7 +3538,7 @@
     </row>
     <row r="95" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -3132,7 +3555,7 @@
     </row>
     <row r="96" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B96" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
@@ -3164,7 +3587,7 @@
     </row>
     <row r="98" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B98" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
@@ -3196,7 +3619,7 @@
     </row>
     <row r="100" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B100" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -3213,7 +3636,7 @@
     </row>
     <row r="101" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B101" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
@@ -3230,7 +3653,7 @@
     </row>
     <row r="102" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B102" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -3262,7 +3685,7 @@
     </row>
     <row r="104" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B104" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -3294,7 +3717,7 @@
     </row>
     <row r="106" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B106" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
@@ -3311,7 +3734,7 @@
     </row>
     <row r="107" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B107" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -3328,7 +3751,7 @@
     </row>
     <row r="108" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B108" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
@@ -3347,4 +3770,927 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2758787-1659-064B-8613-E4C5F92C967E}">
+  <dimension ref="A1:F90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="19">
+        <v>2</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="19">
+        <v>2</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="19">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="19">
+        <v>2</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="19">
+        <v>3</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="19">
+        <v>4</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B48" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B50" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B51" s="18"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B61" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B62" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B63" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B64" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B65" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B69" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B71" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B77" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B84" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>